--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1688,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1688,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>58,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>134,66%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,96; 7,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 4,58</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,83</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 6,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 4,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 7,65</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; 263,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 261,12</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>50,46; 291,11</t>
+          <t>45,48; 284,17</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>121,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>121,53%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>118,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>152,22%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 5,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,21</t>
+          <t>-0,6; 4,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,22</t>
+          <t>3,64; 9,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,36</t>
+          <t>-12,47; 560,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,85; 578,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 465,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,72; 740,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>64,13; 318,59</t>
+          <t>56,96; 295,47</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>472,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>37,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>472,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>211,27%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 5,76</t>
+          <t>6,62; 19,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 18,89</t>
+          <t>7,06; 19,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 19,95</t>
+          <t>-30,39; 156,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>179,4; 1058,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 160,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>174,95; 1027,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>70,98; 794,17</t>
+          <t>70,03; 853,9</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>79,05%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>-11,04%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,68</t>
+          <t>0,91; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,71</t>
+          <t>-5,94; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 1,98</t>
+          <t>-31,54; 54,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,59; 173,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 58,18</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>25,83; 173,84</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-54,36; 22,1</t>
+          <t>-55,09; 24,71</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>256,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>256,67%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>118,92%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>130,86%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,14; 12,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,12</t>
+          <t>3,5; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,57</t>
+          <t>5,94; 16,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,18</t>
+          <t>122,6; 519,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,15; 223,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>122,4; 505,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>51,48; 214,81</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>63,14; 208,67</t>
+          <t>61,63; 210,72</t>
         </is>
       </c>
     </row>
@@ -1120,40 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,13</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,69</t>
+          <t>1662,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2817,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1662,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2817,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>1017,28%</t>
         </is>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>10,14; 14,7</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 13,32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 18,3</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>420,62; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,15; 14,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 13,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>13,03; 18,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>423,03; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>361,37; 2956,89</t>
+          <t>414,64; 3149,48</t>
         </is>
       </c>
     </row>
@@ -1220,40 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>160,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>160,1%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>186,14%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>111,74%</t>
         </is>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,47; 6,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,98</t>
+          <t>4,57; 6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,96</t>
+          <t>4,81; 9,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,26</t>
+          <t>110,46; 223,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,3; 256,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>110,39; 219,13</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>128,67; 252,76</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>73,05; 165,73</t>
+          <t>72,18; 174,59</t>
         </is>
       </c>
     </row>
@@ -1316,13 +1160,13 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
